--- a/testdata/HW34.xlsx
+++ b/testdata/HW34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\JavaBasics\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF7715-4DF1-4994-B207-CA6E2B61CA3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D265F2-81F2-4A6D-8520-1D93D3072614}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F46147CA-C28A-40EE-87E3-E0981D9553F4}"/>
+    <workbookView xWindow="36" yWindow="1260" windowWidth="10548" windowHeight="8964" xr2:uid="{F46147CA-C28A-40EE-87E3-E0981D9553F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>LastName</t>
   </si>
@@ -44,64 +44,67 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Nilson</t>
-  </si>
-  <si>
-    <t>nnilson</t>
-  </si>
-  <si>
     <t>Employee135!###$</t>
   </si>
   <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Lord</t>
-  </si>
-  <si>
-    <t>blord</t>
-  </si>
-  <si>
     <t>Employee136!###$</t>
   </si>
   <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Flame</t>
-  </si>
-  <si>
-    <t>aflame</t>
-  </si>
-  <si>
-    <t>Employee137!###$</t>
-  </si>
-  <si>
-    <t>Gerald</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>gmass</t>
-  </si>
-  <si>
-    <t>Employee867!###$</t>
-  </si>
-  <si>
-    <t>Employee897!###$</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>esmith</t>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>jJohnson</t>
+  </si>
+  <si>
+    <t>rJones</t>
+  </si>
+  <si>
+    <t>BrownH</t>
+  </si>
+  <si>
+    <t>MatAlex</t>
+  </si>
+  <si>
+    <t>Williams123</t>
+  </si>
+  <si>
+    <t>Employee547!###$</t>
+  </si>
+  <si>
+    <t>Empl852!###$</t>
+  </si>
+  <si>
+    <t>871Empl!###$</t>
+  </si>
+  <si>
+    <t>EmloyeeId</t>
   </si>
 </sst>
 </file>
@@ -454,101 +457,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EDA039-1A6C-471A-AA50-5AC2C9F157DC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="2" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>16123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>16124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>16125</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16126</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16127</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
